--- a/src/main/resources/RyanAir.xlsx
+++ b/src/main/resources/RyanAir.xlsx
@@ -3,22 +3,24 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kotmi\Documents\GitHub\RyanAirScanner\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B6F817-A236-467E-85F7-F897C0EB7A4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D87187DB-71A9-4362-A941-65B946D5AA39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="5" r:id="rId1"/>
-    <sheet name="2023-07-15SAPM" sheetId="6" r:id="rId2"/>
+    <sheet name="2023-07-29SAPM" sheetId="7" r:id="rId2"/>
+    <sheet name="2023-08-02PMI0" r:id="rId6" sheetId="8"/>
+    <sheet name="2023-08-02PoMoItBo" r:id="rId7" sheetId="9"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" fullCalcOnLoad="true"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="78">
   <si>
     <t>2023-07-02</t>
   </si>
@@ -85,33 +87,6 @@
     <t>2023-08-31</t>
   </si>
   <si>
-    <t>2023-07-16</t>
-  </si>
-  <si>
-    <t>2023-07-19</t>
-  </si>
-  <si>
-    <t>2023-07-20</t>
-  </si>
-  <si>
-    <t>2023-07-21</t>
-  </si>
-  <si>
-    <t>2023-07-22</t>
-  </si>
-  <si>
-    <t>2023-07-25</t>
-  </si>
-  <si>
-    <t>2023-07-26</t>
-  </si>
-  <si>
-    <t>2023-07-28</t>
-  </si>
-  <si>
-    <t>2023-07-29</t>
-  </si>
-  <si>
     <t>2023-07-30</t>
   </si>
   <si>
@@ -134,12 +109,175 @@
   </si>
   <si>
     <t>2023-08-12</t>
+  </si>
+  <si>
+    <t>2023-08-15</t>
+  </si>
+  <si>
+    <t>2023-08-16</t>
+  </si>
+  <si>
+    <t>2023-08-18</t>
+  </si>
+  <si>
+    <t>2023-08-19</t>
+  </si>
+  <si>
+    <t>2023-08-20</t>
+  </si>
+  <si>
+    <t>2023-08-23</t>
+  </si>
+  <si>
+    <t>2023-08-24</t>
+  </si>
+  <si>
+    <t>2023-08-25</t>
+  </si>
+  <si>
+    <t>2023-08-26</t>
+  </si>
+  <si>
+    <t>2023-08-29</t>
+  </si>
+  <si>
+    <t>2023-09-03</t>
+  </si>
+  <si>
+    <t>2023-09-05</t>
+  </si>
+  <si>
+    <t>2023-09-07</t>
+  </si>
+  <si>
+    <t>2023-09-10</t>
+  </si>
+  <si>
+    <t>2023-09-12</t>
+  </si>
+  <si>
+    <t>2023-09-14</t>
+  </si>
+  <si>
+    <t>2023-09-17</t>
+  </si>
+  <si>
+    <t>2023-09-19</t>
+  </si>
+  <si>
+    <t>2023-09-21</t>
+  </si>
+  <si>
+    <t>2023-09-24</t>
+  </si>
+  <si>
+    <t>2023-09-26</t>
+  </si>
+  <si>
+    <t>2023-09-28</t>
+  </si>
+  <si>
+    <t>2023-10-01</t>
+  </si>
+  <si>
+    <t>2023-10-03</t>
+  </si>
+  <si>
+    <t>2023-10-05</t>
+  </si>
+  <si>
+    <t>2023-10-08</t>
+  </si>
+  <si>
+    <t>2023-10-10</t>
+  </si>
+  <si>
+    <t>2023-10-12</t>
+  </si>
+  <si>
+    <t>2023-10-15</t>
+  </si>
+  <si>
+    <t>2023-10-17</t>
+  </si>
+  <si>
+    <t>2023-10-19</t>
+  </si>
+  <si>
+    <t>2023-10-22</t>
+  </si>
+  <si>
+    <t>2023-10-24</t>
+  </si>
+  <si>
+    <t>2023-10-26</t>
+  </si>
+  <si>
+    <t>2023-10-30</t>
+  </si>
+  <si>
+    <t>2023-08-30</t>
+  </si>
+  <si>
+    <t>2023-09-02</t>
+  </si>
+  <si>
+    <t>2023-09-06</t>
+  </si>
+  <si>
+    <t>2023-09-09</t>
+  </si>
+  <si>
+    <t>2023-09-13</t>
+  </si>
+  <si>
+    <t>2023-09-16</t>
+  </si>
+  <si>
+    <t>2023-09-20</t>
+  </si>
+  <si>
+    <t>2023-09-23</t>
+  </si>
+  <si>
+    <t>2023-09-27</t>
+  </si>
+  <si>
+    <t>2023-09-30</t>
+  </si>
+  <si>
+    <t>2023-10-02</t>
+  </si>
+  <si>
+    <t>2023-10-04</t>
+  </si>
+  <si>
+    <t>2023-10-07</t>
+  </si>
+  <si>
+    <t>2023-10-09</t>
+  </si>
+  <si>
+    <t>2023-10-11</t>
+  </si>
+  <si>
+    <t>2023-10-14</t>
+  </si>
+  <si>
+    <t>2023-10-16</t>
+  </si>
+  <si>
+    <t>2023-10-18</t>
+  </si>
+  <si>
+    <t>2023-10-21</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -172,28 +310,22 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
+      <patternFill patternType="solid"/>
     </fill>
   </fills>
   <borders count="1">
@@ -208,7 +340,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="811">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -243,9 +375,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -318,10 +449,709 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -601,7 +1431,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71F8111A-0A43-4D2D-8EED-43371404A0AE}">
   <dimension ref="A3:P5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -610,7 +1440,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16" width="15" customWidth="1"/>
+    <col min="1" max="16" customWidth="true" width="15.0"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
@@ -724,492 +1554,1306 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A3:Y15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B2B02A8-AD9C-4F39-B24E-91C977319C7D}">
+  <dimension ref="A3:Y16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="25" width="15" customWidth="1"/>
+    <col min="1" max="25" customWidth="true" width="15.0"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="41" t="s">
+      <c r="B3" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="47" t="s">
+      <c r="F3" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="50" t="s">
+      <c r="G3" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="56" t="s">
+      <c r="J3" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="59" t="s">
+      <c r="K3" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="62" t="s">
-        <v>6</v>
-      </c>
-      <c r="K3" s="65" t="s">
+      <c r="L3" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="68" t="s">
+      <c r="M3" s="70" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="71" t="s">
+      <c r="O3" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="74" t="s">
-        <v>7</v>
-      </c>
-      <c r="O3" s="77" t="s">
+      <c r="P3" s="79" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q3" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="P3" s="80" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q3" s="83" t="s">
+      <c r="R3" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="R3" s="86" t="s">
+      <c r="S3" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="S3" s="89" t="s">
-        <v>9</v>
-      </c>
-      <c r="T3" s="92" t="s">
-        <v>10</v>
-      </c>
-      <c r="U3" s="95" t="s">
+      <c r="T3" s="91" t="s">
+        <v>13</v>
+      </c>
+      <c r="U3" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="V3" s="98" t="s">
+      <c r="V3" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="W3" s="101" t="s">
+      <c r="W3" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="X3" s="104" t="s">
+      <c r="X3" s="103" t="s">
         <v>32</v>
       </c>
-      <c r="Y3" s="107" t="s">
-        <v>11</v>
+      <c r="Y3" s="106" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A4" s="34">
-        <v>2733</v>
-      </c>
-      <c r="B4" s="37">
-        <v>1479</v>
-      </c>
-      <c r="C4" s="40">
-        <v>1419</v>
-      </c>
-      <c r="D4" s="43">
-        <v>1306</v>
-      </c>
-      <c r="E4" s="46">
-        <v>809</v>
-      </c>
-      <c r="F4" s="49">
-        <v>945</v>
-      </c>
-      <c r="G4" s="52">
-        <v>945</v>
-      </c>
-      <c r="H4" s="55">
-        <v>1102</v>
-      </c>
-      <c r="I4" s="58">
-        <v>1082</v>
-      </c>
-      <c r="J4" s="61">
-        <v>804</v>
-      </c>
-      <c r="K4" s="64">
-        <v>549</v>
-      </c>
-      <c r="L4" s="67">
-        <v>625</v>
-      </c>
-      <c r="M4" s="70">
-        <v>579</v>
-      </c>
-      <c r="N4" s="73">
+      <c r="A4" s="35">
+        <v>886</v>
+      </c>
+      <c r="B4" s="36">
+        <v>1294</v>
+      </c>
+      <c r="C4" s="39">
+        <v>506</v>
+      </c>
+      <c r="D4" s="42">
+        <v>186</v>
+      </c>
+      <c r="E4" s="45">
+        <v>185</v>
+      </c>
+      <c r="F4" s="48">
+        <v>304</v>
+      </c>
+      <c r="G4" s="51">
+        <v>188</v>
+      </c>
+      <c r="H4" s="54">
+        <v>188</v>
+      </c>
+      <c r="I4" s="57">
+        <v>433</v>
+      </c>
+      <c r="J4" s="60">
+        <v>185</v>
+      </c>
+      <c r="K4" s="63">
+        <v>187</v>
+      </c>
+      <c r="L4" s="66">
+        <v>433</v>
+      </c>
+      <c r="M4" s="69">
+        <v>181</v>
+      </c>
+      <c r="N4" s="72">
+        <v>272</v>
+      </c>
+      <c r="O4" s="75">
         <v>413</v>
       </c>
-      <c r="O4" s="76">
-        <v>552</v>
-      </c>
-      <c r="P4" s="79">
+      <c r="P4" s="78">
+        <v>237</v>
+      </c>
+      <c r="Q4" s="81">
+        <v>350</v>
+      </c>
+      <c r="R4" s="84">
+        <v>344</v>
+      </c>
+      <c r="S4" s="87">
         <v>253</v>
       </c>
-      <c r="Q4" s="82">
-        <v>306</v>
-      </c>
-      <c r="R4" s="85">
-        <v>465</v>
-      </c>
-      <c r="S4" s="88">
-        <v>304</v>
-      </c>
-      <c r="T4" s="91">
-        <v>249</v>
-      </c>
-      <c r="U4" s="94">
-        <v>398</v>
-      </c>
-      <c r="V4" s="97">
-        <v>181</v>
-      </c>
-      <c r="W4" s="100">
-        <v>139</v>
-      </c>
-      <c r="X4" s="103">
-        <v>374</v>
-      </c>
-      <c r="Y4" s="106">
-        <v>398</v>
+      <c r="T4" s="90">
+        <v>320</v>
+      </c>
+      <c r="U4" s="93">
+        <v>368</v>
+      </c>
+      <c r="V4" s="96">
+        <v>1138</v>
+      </c>
+      <c r="W4" s="99">
+        <v>243</v>
+      </c>
+      <c r="X4" s="102">
+        <v>295</v>
+      </c>
+      <c r="Y4" s="105">
+        <v>433</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A5" s="36">
+      <c r="B5" s="38">
+        <v>3511</v>
+      </c>
+      <c r="C5" s="41">
+        <v>3124</v>
+      </c>
+      <c r="D5" s="44">
+        <v>2689</v>
+      </c>
+      <c r="E5" s="47">
         <v>3516</v>
       </c>
-      <c r="B5" s="39">
-        <v>2492</v>
-      </c>
-      <c r="C5" s="42">
-        <v>2406</v>
-      </c>
-      <c r="D5" s="45">
-        <v>1283</v>
-      </c>
-      <c r="E5" s="48">
-        <v>972</v>
-      </c>
-      <c r="F5" s="51">
-        <v>1479</v>
-      </c>
-      <c r="G5" s="54">
-        <v>963</v>
-      </c>
-      <c r="H5" s="57">
-        <v>1479</v>
-      </c>
-      <c r="I5" s="60">
-        <v>1259</v>
-      </c>
-      <c r="J5" s="63">
-        <v>1802</v>
-      </c>
-      <c r="K5" s="66">
-        <v>1198</v>
-      </c>
-      <c r="L5" s="69">
-        <v>1479</v>
-      </c>
-      <c r="M5" s="72">
-        <v>2127</v>
-      </c>
-      <c r="N5" s="75">
-        <v>1733</v>
-      </c>
-      <c r="O5" s="78">
-        <v>1278</v>
-      </c>
-      <c r="P5" s="81">
-        <v>1283</v>
-      </c>
-      <c r="Q5" s="84">
-        <v>1490</v>
-      </c>
-      <c r="R5" s="87">
-        <v>1113</v>
-      </c>
-      <c r="S5" s="90">
-        <v>1733</v>
-      </c>
-      <c r="T5" s="93">
-        <v>1123</v>
-      </c>
-      <c r="U5" s="96">
-        <v>927</v>
-      </c>
-      <c r="V5" s="99">
+      <c r="F5" s="50">
+        <v>3079</v>
+      </c>
+      <c r="G5" s="53">
+        <v>2916</v>
+      </c>
+      <c r="H5" s="56">
+        <v>1553</v>
+      </c>
+      <c r="I5" s="59">
+        <v>1777</v>
+      </c>
+      <c r="J5" s="62">
+        <v>1795</v>
+      </c>
+      <c r="K5" s="65">
+        <v>2471</v>
+      </c>
+      <c r="L5" s="68">
+        <v>1399</v>
+      </c>
+      <c r="M5" s="71">
+        <v>2979</v>
+      </c>
+      <c r="N5" s="74">
+        <v>1271</v>
+      </c>
+      <c r="O5" s="77">
         <v>1020</v>
       </c>
-      <c r="W5" s="102">
-        <v>1479</v>
-      </c>
-      <c r="X5" s="105">
-        <v>1317</v>
-      </c>
-      <c r="Y5" s="108">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <f>A4+A5</f>
-        <v>6249</v>
-      </c>
-      <c r="B6">
-        <f>B4+B5</f>
-        <v>3971</v>
-      </c>
-      <c r="C6">
-        <f t="shared" ref="C6:Y6" si="0">C4+C5</f>
-        <v>3825</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>2589</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
-        <v>1781</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="0"/>
-        <v>2424</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="0"/>
-        <v>1908</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="0"/>
-        <v>2581</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="0"/>
-        <v>2341</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="0"/>
-        <v>2606</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="0"/>
-        <v>1747</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="0"/>
-        <v>2104</v>
-      </c>
-      <c r="M6">
-        <f t="shared" si="0"/>
-        <v>2706</v>
-      </c>
-      <c r="N6">
-        <f t="shared" si="0"/>
-        <v>2146</v>
-      </c>
-      <c r="O6">
-        <f t="shared" si="0"/>
-        <v>1830</v>
-      </c>
-      <c r="P6">
-        <f t="shared" si="0"/>
-        <v>1536</v>
-      </c>
-      <c r="Q6">
-        <f t="shared" si="0"/>
-        <v>1796</v>
-      </c>
-      <c r="R6">
-        <f t="shared" si="0"/>
-        <v>1578</v>
-      </c>
-      <c r="S6">
-        <f t="shared" si="0"/>
-        <v>2037</v>
-      </c>
-      <c r="T6">
-        <f t="shared" si="0"/>
-        <v>1372</v>
-      </c>
-      <c r="U6">
-        <f t="shared" si="0"/>
-        <v>1325</v>
-      </c>
-      <c r="V6">
-        <f t="shared" si="0"/>
-        <v>1201</v>
-      </c>
-      <c r="W6">
-        <f t="shared" si="0"/>
-        <v>1618</v>
-      </c>
-      <c r="X6">
-        <f t="shared" si="0"/>
-        <v>1691</v>
-      </c>
-      <c r="Y6">
-        <f t="shared" si="0"/>
-        <v>1361</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A11" s="111" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="111" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="111" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="111" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="111" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="111" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="111" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="111" t="s">
-        <v>31</v>
-      </c>
-      <c r="I11" s="111"/>
-      <c r="J11" s="111"/>
-      <c r="K11" s="111"/>
-      <c r="L11" s="111"/>
-      <c r="M11" s="111"/>
-      <c r="N11" s="111"/>
-      <c r="O11" s="111"/>
-      <c r="P11" s="111"/>
-      <c r="Q11" s="111"/>
-      <c r="R11" s="111"/>
+      <c r="P5" s="80">
+        <v>976</v>
+      </c>
+      <c r="Q5" s="83">
+        <v>1092</v>
+      </c>
+      <c r="R5" s="86">
+        <v>1294</v>
+      </c>
+      <c r="S5" s="89">
+        <v>1138</v>
+      </c>
+      <c r="T5" s="92">
+        <v>494</v>
+      </c>
+      <c r="U5" s="95">
+        <v>419</v>
+      </c>
+      <c r="V5" s="98">
+        <v>433</v>
+      </c>
+      <c r="W5" s="101">
+        <v>336</v>
+      </c>
+      <c r="X5" s="104">
+        <v>398</v>
+      </c>
+      <c r="Y5" s="107">
+        <v>1813</v>
+      </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A12" s="109">
-        <v>1419</v>
-      </c>
-      <c r="B12" s="109">
-        <v>809</v>
-      </c>
-      <c r="C12" s="109">
-        <v>945</v>
-      </c>
-      <c r="D12" s="109">
-        <v>549</v>
-      </c>
-      <c r="E12" s="109">
-        <v>413</v>
-      </c>
-      <c r="F12" s="109">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>344</v>
+      </c>
+      <c r="B13">
         <v>253</v>
       </c>
-      <c r="G12" s="109">
-        <v>249</v>
-      </c>
-      <c r="H12" s="109">
-        <v>139</v>
-      </c>
-      <c r="I12" s="109"/>
-      <c r="J12" s="109"/>
-      <c r="K12" s="109"/>
-      <c r="L12" s="109"/>
-      <c r="M12" s="109"/>
-      <c r="N12" s="109"/>
-      <c r="O12" s="109"/>
-      <c r="P12" s="109"/>
-      <c r="Q12" s="109"/>
-      <c r="R12" s="109"/>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A14" s="112" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="112" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="112" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="112" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="112" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="112" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" s="112" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" s="112"/>
-      <c r="I14" s="112"/>
-      <c r="J14" s="112"/>
-      <c r="K14" s="112"/>
-      <c r="L14" s="112"/>
-      <c r="M14" s="112"/>
-      <c r="N14" s="112"/>
-      <c r="O14" s="112"/>
-      <c r="P14" s="112"/>
-      <c r="Q14" s="112"/>
-      <c r="R14" s="112"/>
+      <c r="C13">
+        <v>320</v>
+      </c>
+      <c r="D13">
+        <v>368</v>
+      </c>
+      <c r="E13">
+        <v>243</v>
+      </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A15" s="110">
-        <v>2406</v>
-      </c>
-      <c r="B15" s="110">
-        <v>963</v>
-      </c>
-      <c r="C15" s="110">
-        <v>1198</v>
-      </c>
-      <c r="D15" s="110">
-        <v>1479</v>
-      </c>
-      <c r="E15" s="110">
-        <v>1113</v>
-      </c>
-      <c r="F15" s="110">
-        <v>927</v>
-      </c>
-      <c r="G15" s="110">
-        <v>963</v>
-      </c>
-      <c r="H15" s="110"/>
-      <c r="I15" s="110"/>
-      <c r="J15" s="110"/>
-      <c r="K15" s="110"/>
-      <c r="L15" s="110"/>
-      <c r="M15" s="110"/>
-      <c r="N15" s="110"/>
-      <c r="O15" s="110"/>
-      <c r="P15" s="110"/>
-      <c r="Q15" s="110"/>
-      <c r="R15" s="110"/>
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>494</v>
+      </c>
+      <c r="B16">
+        <v>419</v>
+      </c>
+      <c r="C16">
+        <v>336</v>
+      </c>
+      <c r="D16">
+        <v>336</v>
+      </c>
+      <c r="E16">
+        <v>398</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A3:AM16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="15.0"/>
+    <col min="2" max="2" customWidth="true" width="15.0"/>
+    <col min="3" max="3" customWidth="true" width="15.0"/>
+    <col min="4" max="4" customWidth="true" width="15.0"/>
+    <col min="5" max="5" customWidth="true" width="15.0"/>
+    <col min="6" max="6" customWidth="true" width="15.0"/>
+    <col min="7" max="7" customWidth="true" width="15.0"/>
+    <col min="8" max="8" customWidth="true" width="15.0"/>
+    <col min="9" max="9" customWidth="true" width="15.0"/>
+    <col min="10" max="10" customWidth="true" width="15.0"/>
+    <col min="11" max="11" customWidth="true" width="15.0"/>
+    <col min="12" max="12" customWidth="true" width="15.0"/>
+    <col min="13" max="13" customWidth="true" width="15.0"/>
+    <col min="14" max="14" customWidth="true" width="15.0"/>
+    <col min="15" max="15" customWidth="true" width="15.0"/>
+    <col min="16" max="16" customWidth="true" width="15.0"/>
+    <col min="17" max="17" customWidth="true" width="15.0"/>
+    <col min="18" max="18" customWidth="true" width="15.0"/>
+    <col min="19" max="19" customWidth="true" width="15.0"/>
+    <col min="20" max="20" customWidth="true" width="15.0"/>
+    <col min="21" max="21" customWidth="true" width="15.0"/>
+    <col min="22" max="22" customWidth="true" width="15.0"/>
+    <col min="23" max="23" customWidth="true" width="15.0"/>
+    <col min="24" max="24" customWidth="true" width="15.0"/>
+    <col min="25" max="25" customWidth="true" width="15.0"/>
+    <col min="26" max="26" customWidth="true" width="15.0"/>
+    <col min="27" max="27" customWidth="true" width="15.0"/>
+    <col min="28" max="28" customWidth="true" width="15.0"/>
+    <col min="29" max="29" customWidth="true" width="15.0"/>
+    <col min="30" max="30" customWidth="true" width="15.0"/>
+    <col min="31" max="31" customWidth="true" width="15.0"/>
+    <col min="32" max="32" customWidth="true" width="15.0"/>
+    <col min="33" max="33" customWidth="true" width="15.0"/>
+    <col min="34" max="34" customWidth="true" width="15.0"/>
+    <col min="35" max="35" customWidth="true" width="15.0"/>
+    <col min="36" max="36" customWidth="true" width="15.0"/>
+    <col min="37" max="37" customWidth="true" width="15.0"/>
+    <col min="38" max="38" customWidth="true" width="15.0"/>
+    <col min="39" max="39" customWidth="true" width="15.0"/>
+  </cols>
+  <sheetData>
+    <row r="3">
+      <c r="A3" t="s" s="502">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s" s="505">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s" s="294">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s" s="300">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s" s="306">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s" s="312">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s" s="318">
+        <v>28</v>
+      </c>
+      <c r="H3" t="s" s="324">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s" s="330">
+        <v>30</v>
+      </c>
+      <c r="J3" t="s" s="336">
+        <v>14</v>
+      </c>
+      <c r="K3" t="s" s="342">
+        <v>33</v>
+      </c>
+      <c r="L3" t="s" s="348">
+        <v>15</v>
+      </c>
+      <c r="M3" t="s" s="354">
+        <v>34</v>
+      </c>
+      <c r="N3" t="s" s="360">
+        <v>35</v>
+      </c>
+      <c r="O3" t="s" s="366">
+        <v>36</v>
+      </c>
+      <c r="P3" t="s" s="372">
+        <v>37</v>
+      </c>
+      <c r="Q3" t="s" s="378">
+        <v>38</v>
+      </c>
+      <c r="R3" t="s" s="384">
+        <v>39</v>
+      </c>
+      <c r="S3" t="s" s="390">
+        <v>40</v>
+      </c>
+      <c r="T3" t="s" s="396">
+        <v>41</v>
+      </c>
+      <c r="U3" t="s" s="402">
+        <v>42</v>
+      </c>
+      <c r="V3" t="s" s="408">
+        <v>43</v>
+      </c>
+      <c r="W3" t="s" s="414">
+        <v>44</v>
+      </c>
+      <c r="X3" t="s" s="420">
+        <v>45</v>
+      </c>
+      <c r="Y3" t="s" s="426">
+        <v>46</v>
+      </c>
+      <c r="Z3" t="s" s="432">
+        <v>47</v>
+      </c>
+      <c r="AA3" t="s" s="438">
+        <v>48</v>
+      </c>
+      <c r="AB3" t="s" s="444">
+        <v>49</v>
+      </c>
+      <c r="AC3" t="s" s="450">
+        <v>50</v>
+      </c>
+      <c r="AD3" t="s" s="456">
+        <v>51</v>
+      </c>
+      <c r="AE3" t="s" s="462">
+        <v>52</v>
+      </c>
+      <c r="AF3" t="s" s="468">
+        <v>53</v>
+      </c>
+      <c r="AG3" t="s" s="474">
+        <v>54</v>
+      </c>
+      <c r="AH3" t="s" s="480">
+        <v>55</v>
+      </c>
+      <c r="AI3" t="s" s="486">
+        <v>56</v>
+      </c>
+      <c r="AJ3" t="s" s="492">
+        <v>57</v>
+      </c>
+      <c r="AK3" t="s" s="498">
+        <v>58</v>
+      </c>
+      <c r="AL3" t="s" s="511">
+        <v>20</v>
+      </c>
+      <c r="AM3" t="s" s="514">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n" s="503">
+        <v>274.0</v>
+      </c>
+      <c r="B4" t="n" s="506">
+        <v>108.0</v>
+      </c>
+      <c r="C4" t="n" s="292">
+        <v>272.0</v>
+      </c>
+      <c r="D4" t="n" s="298">
+        <v>319.0</v>
+      </c>
+      <c r="E4" t="n" s="304">
+        <v>280.0</v>
+      </c>
+      <c r="F4" t="n" s="310">
+        <v>221.0</v>
+      </c>
+      <c r="G4" t="n" s="316">
+        <v>336.0</v>
+      </c>
+      <c r="H4" t="n" s="322">
+        <v>439.0</v>
+      </c>
+      <c r="I4" t="n" s="328">
+        <v>317.0</v>
+      </c>
+      <c r="J4" t="n" s="334">
+        <v>474.0</v>
+      </c>
+      <c r="K4" t="n" s="340">
+        <v>355.0</v>
+      </c>
+      <c r="L4" t="n" s="346">
+        <v>421.0</v>
+      </c>
+      <c r="M4" t="n" s="352">
+        <v>477.0</v>
+      </c>
+      <c r="N4" t="n" s="358">
+        <v>415.0</v>
+      </c>
+      <c r="O4" t="n" s="364">
+        <v>464.0</v>
+      </c>
+      <c r="P4" t="n" s="370">
+        <v>277.0</v>
+      </c>
+      <c r="Q4" t="n" s="376">
+        <v>316.0</v>
+      </c>
+      <c r="R4" t="n" s="382">
+        <v>334.0</v>
+      </c>
+      <c r="S4" t="n" s="388">
+        <v>266.0</v>
+      </c>
+      <c r="T4" t="n" s="394">
+        <v>233.0</v>
+      </c>
+      <c r="U4" t="n" s="400">
+        <v>272.0</v>
+      </c>
+      <c r="V4" t="n" s="406">
+        <v>196.0</v>
+      </c>
+      <c r="W4" t="n" s="412">
+        <v>160.0</v>
+      </c>
+      <c r="X4" t="n" s="418">
+        <v>270.0</v>
+      </c>
+      <c r="Y4" t="n" s="424">
+        <v>349.0</v>
+      </c>
+      <c r="Z4" t="n" s="430">
+        <v>200.0</v>
+      </c>
+      <c r="AA4" t="n" s="436">
+        <v>628.0</v>
+      </c>
+      <c r="AB4" t="n" s="442">
+        <v>369.0</v>
+      </c>
+      <c r="AC4" t="n" s="448">
+        <v>346.0</v>
+      </c>
+      <c r="AD4" t="n" s="454">
+        <v>342.0</v>
+      </c>
+      <c r="AE4" t="n" s="460">
+        <v>829.0</v>
+      </c>
+      <c r="AF4" t="n" s="466">
+        <v>175.0</v>
+      </c>
+      <c r="AG4" t="n" s="472">
+        <v>294.0</v>
+      </c>
+      <c r="AH4" t="n" s="478">
+        <v>206.0</v>
+      </c>
+      <c r="AI4" t="n" s="484">
+        <v>153.0</v>
+      </c>
+      <c r="AJ4" t="n" s="490">
+        <v>147.0</v>
+      </c>
+      <c r="AK4" t="n" s="496">
+        <v>114.0</v>
+      </c>
+      <c r="AL4" t="n" s="509">
+        <v>124.0</v>
+      </c>
+      <c r="AM4" t="n" s="515">
+        <v>549.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n" s="284">
+        <v>795.0</v>
+      </c>
+      <c r="B5" t="n" s="290">
+        <v>1056.0</v>
+      </c>
+      <c r="C5" t="n" s="296">
+        <v>689.0</v>
+      </c>
+      <c r="D5" t="n" s="302">
+        <v>1601.0</v>
+      </c>
+      <c r="E5" t="n" s="308">
+        <v>943.0</v>
+      </c>
+      <c r="F5" t="n" s="314">
+        <v>973.0</v>
+      </c>
+      <c r="G5" t="n" s="320">
+        <v>856.0</v>
+      </c>
+      <c r="H5" t="n" s="326">
+        <v>607.0</v>
+      </c>
+      <c r="I5" t="n" s="332">
+        <v>439.0</v>
+      </c>
+      <c r="J5" t="n" s="338">
+        <v>474.0</v>
+      </c>
+      <c r="K5" t="n" s="344">
+        <v>460.0</v>
+      </c>
+      <c r="L5" t="n" s="350">
+        <v>467.0</v>
+      </c>
+      <c r="M5" t="n" s="356">
+        <v>652.0</v>
+      </c>
+      <c r="N5" t="n" s="362">
+        <v>412.0</v>
+      </c>
+      <c r="O5" t="n" s="368">
+        <v>468.0</v>
+      </c>
+      <c r="P5" t="n" s="374">
+        <v>389.0</v>
+      </c>
+      <c r="Q5" t="n" s="380">
+        <v>362.0</v>
+      </c>
+      <c r="R5" t="n" s="386">
+        <v>398.0</v>
+      </c>
+      <c r="S5" t="n" s="392">
+        <v>493.0</v>
+      </c>
+      <c r="T5" t="n" s="398">
+        <v>460.0</v>
+      </c>
+      <c r="U5" t="n" s="404">
+        <v>395.0</v>
+      </c>
+      <c r="V5" t="n" s="410">
+        <v>1513.0</v>
+      </c>
+      <c r="W5" t="n" s="416">
+        <v>362.0</v>
+      </c>
+      <c r="X5" t="n" s="422">
+        <v>355.0</v>
+      </c>
+      <c r="Y5" t="n" s="428">
+        <v>550.0</v>
+      </c>
+      <c r="Z5" t="n" s="434">
+        <v>540.0</v>
+      </c>
+      <c r="AA5" t="n" s="440">
+        <v>393.0</v>
+      </c>
+      <c r="AB5" t="n" s="446">
+        <v>405.0</v>
+      </c>
+      <c r="AC5" t="n" s="452">
+        <v>632.0</v>
+      </c>
+      <c r="AD5" t="n" s="458">
+        <v>464.0</v>
+      </c>
+      <c r="AE5" t="n" s="464">
+        <v>734.0</v>
+      </c>
+      <c r="AF5" t="n" s="470">
+        <v>219.0</v>
+      </c>
+      <c r="AG5" t="n" s="476">
+        <v>188.0</v>
+      </c>
+      <c r="AH5" t="n" s="482">
+        <v>729.0</v>
+      </c>
+      <c r="AI5" t="n" s="488">
+        <v>250.0</v>
+      </c>
+      <c r="AJ5" t="n" s="494">
+        <v>235.0</v>
+      </c>
+      <c r="AK5" t="n" s="500">
+        <v>308.0</v>
+      </c>
+      <c r="AL5" t="n" s="513">
+        <v>1131.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>196.0</v>
+      </c>
+      <c r="B13" t="n">
+        <v>160.0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>175.0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>206.0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>153.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>362.0</v>
+      </c>
+      <c r="B16" t="n">
+        <v>355.0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>188.0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>235.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A3:AX5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="15.0"/>
+    <col min="2" max="2" customWidth="true" width="15.0"/>
+    <col min="3" max="3" customWidth="true" width="15.0"/>
+    <col min="4" max="4" customWidth="true" width="15.0"/>
+    <col min="5" max="5" customWidth="true" width="15.0"/>
+    <col min="6" max="6" customWidth="true" width="15.0"/>
+    <col min="7" max="7" customWidth="true" width="15.0"/>
+    <col min="8" max="8" customWidth="true" width="15.0"/>
+    <col min="9" max="9" customWidth="true" width="15.0"/>
+    <col min="10" max="10" customWidth="true" width="15.0"/>
+    <col min="11" max="11" customWidth="true" width="15.0"/>
+    <col min="12" max="12" customWidth="true" width="15.0"/>
+    <col min="13" max="13" customWidth="true" width="15.0"/>
+    <col min="14" max="14" customWidth="true" width="15.0"/>
+    <col min="15" max="15" customWidth="true" width="15.0"/>
+    <col min="16" max="16" customWidth="true" width="15.0"/>
+    <col min="17" max="17" customWidth="true" width="15.0"/>
+    <col min="18" max="18" customWidth="true" width="15.0"/>
+    <col min="19" max="19" customWidth="true" width="15.0"/>
+    <col min="20" max="20" customWidth="true" width="15.0"/>
+    <col min="21" max="21" customWidth="true" width="15.0"/>
+    <col min="22" max="22" customWidth="true" width="15.0"/>
+    <col min="23" max="23" customWidth="true" width="15.0"/>
+    <col min="24" max="24" customWidth="true" width="15.0"/>
+    <col min="25" max="25" customWidth="true" width="15.0"/>
+    <col min="26" max="26" customWidth="true" width="15.0"/>
+    <col min="27" max="27" customWidth="true" width="15.0"/>
+    <col min="28" max="28" customWidth="true" width="15.0"/>
+    <col min="29" max="29" customWidth="true" width="15.0"/>
+    <col min="30" max="30" customWidth="true" width="15.0"/>
+    <col min="31" max="31" customWidth="true" width="15.0"/>
+    <col min="32" max="32" customWidth="true" width="15.0"/>
+    <col min="33" max="33" customWidth="true" width="15.0"/>
+    <col min="34" max="34" customWidth="true" width="15.0"/>
+    <col min="35" max="35" customWidth="true" width="15.0"/>
+    <col min="36" max="36" customWidth="true" width="15.0"/>
+    <col min="37" max="37" customWidth="true" width="15.0"/>
+    <col min="38" max="38" customWidth="true" width="15.0"/>
+    <col min="39" max="39" customWidth="true" width="15.0"/>
+    <col min="40" max="40" customWidth="true" width="15.0"/>
+    <col min="41" max="41" customWidth="true" width="15.0"/>
+    <col min="42" max="42" customWidth="true" width="15.0"/>
+    <col min="43" max="43" customWidth="true" width="15.0"/>
+    <col min="44" max="44" customWidth="true" width="15.0"/>
+    <col min="45" max="45" customWidth="true" width="15.0"/>
+    <col min="46" max="46" customWidth="true" width="15.0"/>
+    <col min="47" max="47" customWidth="true" width="15.0"/>
+    <col min="48" max="48" customWidth="true" width="15.0"/>
+    <col min="49" max="49" customWidth="true" width="15.0"/>
+    <col min="50" max="50" customWidth="true" width="15.0"/>
+  </cols>
+  <sheetData>
+    <row r="3">
+      <c r="A3" t="s" s="517">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s" s="520">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s" s="526">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s" s="532">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s" s="538">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s" s="544">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s" s="550">
+        <v>25</v>
+      </c>
+      <c r="H3" t="s" s="556">
+        <v>27</v>
+      </c>
+      <c r="I3" t="s" s="562">
+        <v>28</v>
+      </c>
+      <c r="J3" t="s" s="568">
+        <v>13</v>
+      </c>
+      <c r="K3" t="s" s="574">
+        <v>29</v>
+      </c>
+      <c r="L3" t="s" s="580">
+        <v>32</v>
+      </c>
+      <c r="M3" t="s" s="586">
+        <v>14</v>
+      </c>
+      <c r="N3" t="s" s="592">
+        <v>33</v>
+      </c>
+      <c r="O3" t="s" s="598">
+        <v>59</v>
+      </c>
+      <c r="P3" t="s" s="604">
+        <v>60</v>
+      </c>
+      <c r="Q3" t="s" s="610">
+        <v>34</v>
+      </c>
+      <c r="R3" t="s" s="616">
+        <v>35</v>
+      </c>
+      <c r="S3" t="s" s="622">
+        <v>61</v>
+      </c>
+      <c r="T3" t="s" s="628">
+        <v>62</v>
+      </c>
+      <c r="U3" t="s" s="634">
+        <v>37</v>
+      </c>
+      <c r="V3" t="s" s="640">
+        <v>38</v>
+      </c>
+      <c r="W3" t="s" s="646">
+        <v>63</v>
+      </c>
+      <c r="X3" t="s" s="652">
+        <v>64</v>
+      </c>
+      <c r="Y3" t="s" s="658">
+        <v>40</v>
+      </c>
+      <c r="Z3" t="s" s="664">
+        <v>41</v>
+      </c>
+      <c r="AA3" t="s" s="670">
+        <v>65</v>
+      </c>
+      <c r="AB3" t="s" s="676">
+        <v>66</v>
+      </c>
+      <c r="AC3" t="s" s="682">
+        <v>43</v>
+      </c>
+      <c r="AD3" t="s" s="688">
+        <v>44</v>
+      </c>
+      <c r="AE3" t="s" s="694">
+        <v>67</v>
+      </c>
+      <c r="AF3" t="s" s="700">
+        <v>68</v>
+      </c>
+      <c r="AG3" t="s" s="706">
+        <v>46</v>
+      </c>
+      <c r="AH3" t="s" s="712">
+        <v>69</v>
+      </c>
+      <c r="AI3" t="s" s="718">
+        <v>47</v>
+      </c>
+      <c r="AJ3" t="s" s="724">
+        <v>70</v>
+      </c>
+      <c r="AK3" t="s" s="730">
+        <v>48</v>
+      </c>
+      <c r="AL3" t="s" s="736">
+        <v>71</v>
+      </c>
+      <c r="AM3" t="s" s="742">
+        <v>49</v>
+      </c>
+      <c r="AN3" t="s" s="748">
+        <v>72</v>
+      </c>
+      <c r="AO3" t="s" s="754">
+        <v>50</v>
+      </c>
+      <c r="AP3" t="s" s="760">
+        <v>73</v>
+      </c>
+      <c r="AQ3" t="s" s="766">
+        <v>51</v>
+      </c>
+      <c r="AR3" t="s" s="772">
+        <v>74</v>
+      </c>
+      <c r="AS3" t="s" s="778">
+        <v>52</v>
+      </c>
+      <c r="AT3" t="s" s="784">
+        <v>75</v>
+      </c>
+      <c r="AU3" t="s" s="790">
+        <v>53</v>
+      </c>
+      <c r="AV3" t="s" s="796">
+        <v>76</v>
+      </c>
+      <c r="AW3" t="s" s="802">
+        <v>54</v>
+      </c>
+      <c r="AX3" t="s" s="808">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n" s="518">
+        <v>274.0</v>
+      </c>
+      <c r="B4" t="n" s="521">
+        <v>108.0</v>
+      </c>
+      <c r="C4" t="n" s="524">
+        <v>124.0</v>
+      </c>
+      <c r="D4" t="n" s="530">
+        <v>549.0</v>
+      </c>
+      <c r="E4" t="n" s="536">
+        <v>252.0</v>
+      </c>
+      <c r="F4" t="n" s="542">
+        <v>317.0</v>
+      </c>
+      <c r="G4" t="n" s="548">
+        <v>313.0</v>
+      </c>
+      <c r="H4" t="n" s="554">
+        <v>304.0</v>
+      </c>
+      <c r="I4" t="n" s="560">
+        <v>256.0</v>
+      </c>
+      <c r="J4" t="n" s="566">
+        <v>356.0</v>
+      </c>
+      <c r="K4" t="n" s="572">
+        <v>352.0</v>
+      </c>
+      <c r="L4" t="n" s="578">
+        <v>431.0</v>
+      </c>
+      <c r="M4" t="n" s="584">
+        <v>425.0</v>
+      </c>
+      <c r="N4" t="n" s="590">
+        <v>318.0</v>
+      </c>
+      <c r="O4" t="n" s="596">
+        <v>324.0</v>
+      </c>
+      <c r="P4" t="n" s="602">
+        <v>369.0</v>
+      </c>
+      <c r="Q4" t="n" s="608">
+        <v>403.0</v>
+      </c>
+      <c r="R4" t="n" s="614">
+        <v>369.0</v>
+      </c>
+      <c r="S4" t="n" s="620">
+        <v>376.0</v>
+      </c>
+      <c r="T4" t="n" s="626">
+        <v>342.0</v>
+      </c>
+      <c r="U4" t="n" s="632">
+        <v>241.0</v>
+      </c>
+      <c r="V4" t="n" s="638">
+        <v>237.0</v>
+      </c>
+      <c r="W4" t="n" s="644">
+        <v>271.0</v>
+      </c>
+      <c r="X4" t="n" s="650">
+        <v>313.0</v>
+      </c>
+      <c r="Y4" t="n" s="656">
+        <v>275.0</v>
+      </c>
+      <c r="Z4" t="n" s="662">
+        <v>171.0</v>
+      </c>
+      <c r="AA4" t="n" s="668">
+        <v>239.0</v>
+      </c>
+      <c r="AB4" t="n" s="674">
+        <v>223.0</v>
+      </c>
+      <c r="AC4" t="n" s="680">
+        <v>241.0</v>
+      </c>
+      <c r="AD4" t="n" s="686">
+        <v>126.0</v>
+      </c>
+      <c r="AE4" t="n" s="692">
+        <v>119.0</v>
+      </c>
+      <c r="AF4" t="n" s="698">
+        <v>204.0</v>
+      </c>
+      <c r="AG4" t="n" s="704">
+        <v>101.0</v>
+      </c>
+      <c r="AH4" t="n" s="710">
+        <v>111.0</v>
+      </c>
+      <c r="AI4" t="n" s="716">
+        <v>111.0</v>
+      </c>
+      <c r="AJ4" t="n" s="722">
+        <v>138.0</v>
+      </c>
+      <c r="AK4" t="n" s="728">
+        <v>139.0</v>
+      </c>
+      <c r="AL4" t="n" s="734">
+        <v>191.0</v>
+      </c>
+      <c r="AM4" t="n" s="740">
+        <v>113.0</v>
+      </c>
+      <c r="AN4" t="n" s="746">
+        <v>107.0</v>
+      </c>
+      <c r="AO4" t="n" s="752">
+        <v>115.0</v>
+      </c>
+      <c r="AP4" t="n" s="758">
+        <v>115.0</v>
+      </c>
+      <c r="AQ4" t="n" s="764">
+        <v>219.0</v>
+      </c>
+      <c r="AR4" t="n" s="770">
+        <v>195.0</v>
+      </c>
+      <c r="AS4" t="n" s="776">
+        <v>119.0</v>
+      </c>
+      <c r="AT4" t="n" s="782">
+        <v>113.0</v>
+      </c>
+      <c r="AU4" t="n" s="788">
+        <v>119.0</v>
+      </c>
+      <c r="AV4" t="n" s="794">
+        <v>129.0</v>
+      </c>
+      <c r="AW4" t="n" s="800">
+        <v>111.0</v>
+      </c>
+      <c r="AX4" t="n" s="806">
+        <v>152.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="C5" t="n" s="528">
+        <v>1131.0</v>
+      </c>
+      <c r="D5" t="n" s="534">
+        <v>835.0</v>
+      </c>
+      <c r="E5" t="n" s="540">
+        <v>591.0</v>
+      </c>
+      <c r="F5" t="n" s="546">
+        <v>1009.0</v>
+      </c>
+      <c r="G5" t="n" s="552">
+        <v>547.0</v>
+      </c>
+      <c r="H5" t="n" s="558">
+        <v>578.0</v>
+      </c>
+      <c r="I5" t="n" s="564">
+        <v>425.0</v>
+      </c>
+      <c r="J5" t="n" s="570">
+        <v>365.0</v>
+      </c>
+      <c r="K5" t="n" s="576">
+        <v>261.0</v>
+      </c>
+      <c r="L5" t="n" s="582">
+        <v>261.0</v>
+      </c>
+      <c r="M5" t="n" s="588">
+        <v>206.0</v>
+      </c>
+      <c r="N5" t="n" s="594">
+        <v>235.0</v>
+      </c>
+      <c r="O5" t="n" s="600">
+        <v>191.0</v>
+      </c>
+      <c r="P5" t="n" s="606">
+        <v>261.0</v>
+      </c>
+      <c r="Q5" t="n" s="612">
+        <v>175.0</v>
+      </c>
+      <c r="R5" t="n" s="618">
+        <v>181.0</v>
+      </c>
+      <c r="S5" t="n" s="624">
+        <v>192.0</v>
+      </c>
+      <c r="T5" t="n" s="630">
+        <v>435.0</v>
+      </c>
+      <c r="U5" t="n" s="636">
+        <v>304.0</v>
+      </c>
+      <c r="V5" t="n" s="642">
+        <v>270.0</v>
+      </c>
+      <c r="W5" t="n" s="648">
+        <v>208.0</v>
+      </c>
+      <c r="X5" t="n" s="654">
+        <v>271.0</v>
+      </c>
+      <c r="Y5" t="n" s="660">
+        <v>304.0</v>
+      </c>
+      <c r="Z5" t="n" s="666">
+        <v>257.0</v>
+      </c>
+      <c r="AA5" t="n" s="672">
+        <v>239.0</v>
+      </c>
+      <c r="AB5" t="n" s="678">
+        <v>344.0</v>
+      </c>
+      <c r="AC5" t="n" s="684">
+        <v>425.0</v>
+      </c>
+      <c r="AD5" t="n" s="690">
+        <v>261.0</v>
+      </c>
+      <c r="AE5" t="n" s="696">
+        <v>415.0</v>
+      </c>
+      <c r="AF5" t="n" s="702">
+        <v>541.0</v>
+      </c>
+      <c r="AG5" t="n" s="708">
+        <v>329.0</v>
+      </c>
+      <c r="AH5" t="n" s="714">
+        <v>320.0</v>
+      </c>
+      <c r="AI5" t="n" s="720">
+        <v>457.0</v>
+      </c>
+      <c r="AJ5" t="n" s="726">
+        <v>257.0</v>
+      </c>
+      <c r="AK5" t="n" s="732">
+        <v>228.0</v>
+      </c>
+      <c r="AL5" t="n" s="738">
+        <v>316.0</v>
+      </c>
+      <c r="AM5" t="n" s="744">
+        <v>218.0</v>
+      </c>
+      <c r="AN5" t="n" s="750">
+        <v>329.0</v>
+      </c>
+      <c r="AO5" t="n" s="756">
+        <v>204.0</v>
+      </c>
+      <c r="AP5" t="n" s="762">
+        <v>362.0</v>
+      </c>
+      <c r="AQ5" t="n" s="768">
+        <v>235.0</v>
+      </c>
+      <c r="AR5" t="n" s="774">
+        <v>300.0</v>
+      </c>
+      <c r="AS5" t="n" s="780">
+        <v>152.0</v>
+      </c>
+      <c r="AT5" t="n" s="786">
+        <v>142.0</v>
+      </c>
+      <c r="AU5" t="n" s="792">
+        <v>152.0</v>
+      </c>
+      <c r="AV5" t="n" s="798">
+        <v>126.0</v>
+      </c>
+      <c r="AW5" t="n" s="804">
+        <v>219.0</v>
+      </c>
+      <c r="AX5" t="n" s="810">
+        <v>155.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>